--- a/input_data/input_data_8.xlsx
+++ b/input_data/input_data_8.xlsx
@@ -8,31 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer_dev\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51274AC-A1AA-444B-8832-4F3355886B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE303F05-1FFB-49A1-BBF3-7DB8B421B953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12336" tabRatio="796" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="11" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
     <sheet name="nodes" sheetId="1" r:id="rId2"/>
     <sheet name="processes" sheetId="2" r:id="rId3"/>
-    <sheet name="efficiencies" sheetId="10" r:id="rId4"/>
-    <sheet name="process_topology" sheetId="6" r:id="rId5"/>
-    <sheet name="node_history" sheetId="19" r:id="rId6"/>
-    <sheet name="reserve_type" sheetId="13" r:id="rId7"/>
-    <sheet name="cf" sheetId="7" r:id="rId8"/>
-    <sheet name="inflow" sheetId="3" r:id="rId9"/>
-    <sheet name="price" sheetId="4" r:id="rId10"/>
-    <sheet name="markets" sheetId="5" r:id="rId11"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId12"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId13"/>
-    <sheet name="risk" sheetId="17" r:id="rId14"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId15"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId16"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId17"/>
-    <sheet name="constraints" sheetId="14" r:id="rId18"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId19"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId20"/>
+    <sheet name="groups" sheetId="22" r:id="rId4"/>
+    <sheet name="efficiencies" sheetId="10" r:id="rId5"/>
+    <sheet name="process_topology" sheetId="6" r:id="rId6"/>
+    <sheet name="node_history" sheetId="19" r:id="rId7"/>
+    <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
+    <sheet name="cf" sheetId="7" r:id="rId9"/>
+    <sheet name="inflow" sheetId="3" r:id="rId10"/>
+    <sheet name="price" sheetId="4" r:id="rId11"/>
+    <sheet name="markets" sheetId="5" r:id="rId12"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
+    <sheet name="risk" sheetId="17" r:id="rId15"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
+    <sheet name="constraints" sheetId="14" r:id="rId19"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
   <si>
     <t>node</t>
   </si>
@@ -222,9 +223,6 @@
     <t>max_offline</t>
   </si>
   <si>
-    <t>hidas</t>
-  </si>
-  <si>
     <t>polttoaine</t>
   </si>
   <si>
@@ -243,37 +241,100 @@
     <t>npe,ALL</t>
   </si>
   <si>
-    <t>rup</t>
-  </si>
-  <si>
-    <t>rup,ALL</t>
-  </si>
-  <si>
-    <t>rdown</t>
-  </si>
-  <si>
     <t>down</t>
   </si>
   <si>
     <t>sto1</t>
   </si>
   <si>
-    <t>sto2</t>
-  </si>
-  <si>
     <t>sto1_c</t>
   </si>
   <si>
     <t>sto1_dc</t>
   </si>
   <si>
-    <t>sto2_c</t>
-  </si>
-  <si>
-    <t>sto2_dc</t>
-  </si>
-  <si>
-    <t>rdown,ALL</t>
+    <t>intraday</t>
+  </si>
+  <si>
+    <t>rup_fast</t>
+  </si>
+  <si>
+    <t>rdown_fast</t>
+  </si>
+  <si>
+    <t>rup_slow</t>
+  </si>
+  <si>
+    <t>rdown_slow</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>intraday,ALL</t>
+  </si>
+  <si>
+    <t>rup_fast,ALL</t>
+  </si>
+  <si>
+    <t>rdown_fast,ALL</t>
+  </si>
+  <si>
+    <t>rup_slow,ALL</t>
+  </si>
+  <si>
+    <t>rdown_slow,ALL</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>pv</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>flexible_load</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>heat,ALL</t>
+  </si>
+  <si>
+    <t>pv,ALL</t>
+  </si>
+  <si>
+    <t>intraday,up,s1</t>
+  </si>
+  <si>
+    <t>intraday,dw,s1</t>
+  </si>
+  <si>
+    <t>elc2</t>
+  </si>
+  <si>
+    <t>elc_tra</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>g_rup_slow</t>
+  </si>
+  <si>
+    <t>g_rdown_slow</t>
+  </si>
+  <si>
+    <t>g_rup_fast</t>
+  </si>
+  <si>
+    <t>g_rdown_fast</t>
   </si>
 </sst>
 </file>
@@ -660,180 +721,180 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -842,6 +903,261 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -849,20 +1165,20 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -871,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -880,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -889,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -898,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
@@ -907,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
@@ -916,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
@@ -925,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
@@ -934,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
@@ -943,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
@@ -952,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
@@ -961,197 +1277,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1160,272 +1361,581 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <f>B2</f>
+        <v>78.400000000000006</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.6</v>
+      </c>
+      <c r="E2">
+        <v>6.3</v>
+      </c>
+      <c r="F2">
+        <v>10.3</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>61.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <f t="shared" ref="C3:C12" si="0">B3</f>
+        <v>61.9</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.7</v>
+      </c>
+      <c r="E3">
+        <v>6.5</v>
+      </c>
+      <c r="F3">
+        <v>9.6</v>
+      </c>
+      <c r="G3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>64.2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>64.2</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11.6</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>10.5</v>
+      </c>
+      <c r="G4">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>58.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>58.9</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>8.5</v>
+      </c>
+      <c r="G5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>56.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>56.9</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12.6</v>
+      </c>
+      <c r="E6">
+        <v>6.3</v>
+      </c>
+      <c r="F6">
+        <v>11.3</v>
+      </c>
+      <c r="G6">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>79.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>79.7</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.9</v>
+      </c>
+      <c r="E7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F7">
+        <v>8.5</v>
+      </c>
+      <c r="G7">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>79.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>79.5</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9.5</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>10.5</v>
+      </c>
+      <c r="G8">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>59.6</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>59.6</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10.5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>68.099999999999994</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>7.5</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>68.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>68.5</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15.7</v>
+      </c>
+      <c r="E11">
+        <v>8.4</v>
+      </c>
+      <c r="F11">
+        <v>8.4</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>74.5</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>74.5</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13.7</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G12">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1438,21 +1948,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -1462,234 +1972,328 @@
       <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2">
         <f>market_prices!B2+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="C2">
         <f>market_prices!B2-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>78.300000000000011</v>
+      </c>
+      <c r="D2">
+        <f>market_prices!C2+0.1</f>
+        <v>78.5</v>
+      </c>
+      <c r="E2">
+        <f>market_prices!C2-0.1</f>
+        <v>78.300000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3">
         <f>market_prices!B3+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <f>market_prices!B3-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>61.8</v>
+      </c>
+      <c r="D3">
+        <f>market_prices!C3+0.1</f>
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <f>market_prices!C3-0.1</f>
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4">
         <f>market_prices!B4+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="C4">
         <f>market_prices!B4-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64.100000000000009</v>
+      </c>
+      <c r="D4">
+        <f>market_prices!C4+0.1</f>
+        <v>64.3</v>
+      </c>
+      <c r="E4">
+        <f>market_prices!C4-0.1</f>
+        <v>64.100000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5">
         <f>market_prices!B5+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <f>market_prices!B5-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58.8</v>
+      </c>
+      <c r="D5">
+        <f>market_prices!C5+0.1</f>
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <f>market_prices!C5-0.1</f>
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6">
         <f>market_prices!B6+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <f>market_prices!B6-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56.8</v>
+      </c>
+      <c r="D6">
+        <f>market_prices!C6+0.1</f>
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <f>market_prices!C6-0.1</f>
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7">
         <f>market_prices!B7+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="C7">
         <f>market_prices!B7-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79.600000000000009</v>
+      </c>
+      <c r="D7">
+        <f>market_prices!C7+0.1</f>
+        <v>79.8</v>
+      </c>
+      <c r="E7">
+        <f>market_prices!C7-0.1</f>
+        <v>79.600000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8">
         <f>market_prices!B8+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="C8">
         <f>market_prices!B8-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="D8">
+        <f>market_prices!C8+0.1</f>
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E8">
+        <f>market_prices!C8-0.1</f>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
       <c r="B9">
         <f>market_prices!B9+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>59.7</v>
       </c>
       <c r="C9">
         <f>market_prices!B9-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59.5</v>
+      </c>
+      <c r="D9">
+        <f>market_prices!C9+0.1</f>
+        <v>59.7</v>
+      </c>
+      <c r="E9">
+        <f>market_prices!C9-0.1</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
       <c r="B10">
         <f>market_prices!B10+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>68.199999999999989</v>
       </c>
       <c r="C10">
         <f>market_prices!B10-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D10">
+        <f>market_prices!C10+0.1</f>
+        <v>68.199999999999989</v>
+      </c>
+      <c r="E10">
+        <f>market_prices!C10-0.1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
       <c r="B11">
         <f>market_prices!B11+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="C11">
         <f>market_prices!B11-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D11">
+        <f>market_prices!C11+0.1</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E11">
+        <f>market_prices!C11-0.1</f>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
       <c r="B12">
         <f>market_prices!B12+0.1</f>
-        <v>1.1000000000000001</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="C12">
         <f>market_prices!B12-0.1</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D12">
+        <f>market_prices!C12+0.1</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E12">
+        <f>market_prices!C12-0.1</f>
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1701,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1709,12 +2313,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1722,7 +2326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1730,7 +2334,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1743,7 +2347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1751,9 +2355,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1761,7 +2365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1775,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1783,162 +2387,162 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1949,7 +2553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -1957,155 +2561,155 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2117,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M8"/>
   <sheetViews>
@@ -2125,14 +2729,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -2140,7 +2744,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2148,173 +2752,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2323,23 +2760,23 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2377,7 +2814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2415,15 +2852,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -2432,16 +2869,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -2453,15 +2890,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
@@ -2473,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <v>0</v>
@@ -2491,9 +2928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -2529,20 +2966,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -2555,7 +3017,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -2574,6 +3036,173 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44671.166666435187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44671.208333043978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44671.249999652777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44671.291666261575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44671.333332870374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>44671.374999479165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>44671.416666087964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2581,155 +3210,155 @@
       <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2745,25 +3374,25 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -2813,12 +3442,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
@@ -2863,9 +3492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -2883,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -2913,9 +3542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -2924,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -2948,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -2963,9 +3592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -2983,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3013,9 +3642,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -3033,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3063,41 +3692,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3114,7 +3809,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3131,7 +3826,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3148,7 +3843,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3165,16 +3860,16 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
     </row>
   </sheetData>
@@ -3183,6 +3878,169 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C61D46-0DE6-437C-A2E3-F69522BFEB03}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB1106B-D567-41FC-8E91-2B4CC5EC9B59}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -3190,9 +4048,9 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -3241,28 +4099,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -3288,41 +4146,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -3334,18 +4192,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -3354,36 +4212,36 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="5">
         <v>10</v>
@@ -3392,24 +4250,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G6" s="5">
         <v>10</v>
@@ -3418,12 +4276,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -3432,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -3444,21 +4302,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -3470,15 +4328,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -3496,15 +4354,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -3522,15 +4380,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -3547,6 +4405,102 @@
       <c r="H11" s="5">
         <v>10</v>
       </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3554,7 +4508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -3562,189 +4516,158 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3753,388 +4676,244 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0532F8A-0FB4-47AD-98A1-4065D3376432}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A4637A-7829-48D6-AE54-2E654AB1A427}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
+      <c r="B2">
+        <v>0.18111111111111111</v>
+      </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.47333333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.95888888888888901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4.3333333333333335E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44671.166666435187</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.17333333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44671.208333043978</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44671.249999652777</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.85333333333333328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44671.291666261575</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0.84444444444444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44671.333332870374</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0.30111111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>44671.374999479165</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0.19333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>44671.416666087964</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0.46888888888888886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F87DD44-A1AD-4241-AED7-C48CC9DEE2E2}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>44671.166666435187</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>44671.208333043978</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>44671.249999652777</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>44671.291666261575</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>44671.333332870374</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>44671.374999479165</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>44671.416666087964</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
